--- a/7 - Recherche Entrées/1 - Subventions/2021-2022/AVP-SAO/Dossier Final V3/2.6.3.1.1-Subvention-SAO-Documents_comptables_2022_Général.xlsx
+++ b/7 - Recherche Entrées/1 - Subventions/2021-2022/AVP-SAO/Dossier Final V3/2.6.3.1.1-Subvention-SAO-Documents_comptables_2022_Général.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPFL\Asos\Unipoly\Tresorerie21-22\UP_Tresorerie_21-22\4-Subventions\2021-2022\AVP-SAO\Dossier Final V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Documents\Clara\Unipoly\UPSecretrariat\7 - Recherche Entrées\1 - Subventions\2021-2022\AVP-SAO\Dossier Final V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C828C5-2AB9-4EFC-B846-0F5AEE35D383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37038397-F5A8-4290-AB84-A36E9A011CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15216" windowHeight="12048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profits et Pertes" sheetId="1" r:id="rId1"/>
@@ -522,9 +522,6 @@
     <t>Meubléco : Ventes</t>
   </si>
   <si>
-    <t>Meubléco : Fonctionement</t>
-  </si>
-  <si>
     <t>Meubléco : Achat de meubles</t>
   </si>
   <si>
@@ -532,6 +529,9 @@
   </si>
   <si>
     <t>Meubléco : Bourse Act4Change</t>
+  </si>
+  <si>
+    <t>Meubléco : Fonctionnement</t>
   </si>
 </sst>
 </file>
@@ -923,36 +923,29 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,37 +964,37 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1010,68 +1003,58 @@
     <xf numFmtId="164" fontId="20" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1083,10 +1066,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1094,10 +1077,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1108,82 +1091,69 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="3" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="3" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="3" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,16 +1176,16 @@
     <xf numFmtId="164" fontId="20" fillId="3" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,51 +1193,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1277,11 +1203,55 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2003,1122 +1973,1096 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC75"/>
+  <dimension ref="A1:XFC73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="49.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="3.21875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="81.109375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="16382" width="11.44140625" style="2" hidden="1"/>
-    <col min="16383" max="16383" width="35.21875" style="2" hidden="1"/>
-    <col min="16384" max="16384" width="36.21875" style="2" hidden="1"/>
+    <col min="1" max="1" width="49.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.08984375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="16382" width="11.453125" style="1" hidden="1"/>
+    <col min="16383" max="16383" width="35.1796875" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="36.1796875" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:6" ht="20">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="18.899999999999999" customHeight="1">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.399999999999999">
-      <c r="A4" s="123" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6">
-      <c r="A5" s="124" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.5">
+      <c r="A5" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="41.4">
-      <c r="A7" s="92"/>
-      <c r="B7" s="98" t="s">
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="19">
+      <c r="A6" s="110"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="42">
+      <c r="A7" s="78"/>
+      <c r="B7" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="18" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A8" s="102" t="s">
+    <row r="8" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A8" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23" t="s">
+      <c r="D8" s="19"/>
+      <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="29"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="26">
         <f>IFERROR((C10-E10)/E10,"")</f>
         <v>0.88962619758127848</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="25">
         <f>SUM(C11:C22)</f>
         <v>26950</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="30">
+      <c r="D10" s="19"/>
+      <c r="E10" s="25">
         <f>SUM(E11:E22)</f>
         <v>14262.08</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="34" t="str">
+      <c r="B11" s="29" t="str">
         <f>IFERROR((C11-E11)/E11,"")</f>
         <v/>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="28">
         <v>500</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="33">
+      <c r="D11" s="30"/>
+      <c r="E11" s="28">
         <v>0</v>
       </c>
-      <c r="F11" s="32"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="29">
         <f t="shared" ref="B12:B21" si="0">IFERROR((C12-E12)/E12,"")</f>
         <v>18.676923076923078</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="28">
         <v>12790</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="33">
+      <c r="D12" s="30"/>
+      <c r="E12" s="28">
         <v>650</v>
       </c>
-      <c r="F12" s="36"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="28">
         <v>0</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="33">
+      <c r="D13" s="30"/>
+      <c r="E13" s="28">
         <v>39.28</v>
       </c>
-      <c r="F13" s="36"/>
+      <c r="F13" s="31"/>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="33">
+      <c r="D14" s="30"/>
+      <c r="E14" s="28">
         <v>162</v>
       </c>
-      <c r="F14" s="36"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="29">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="28">
         <v>0</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="33">
+      <c r="D15" s="30"/>
+      <c r="E15" s="28">
         <v>400</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="29">
         <f t="shared" si="0"/>
         <v>-0.28694515419811045</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="28">
         <v>600</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="33">
+      <c r="D16" s="30"/>
+      <c r="E16" s="28">
         <v>841.45</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="34" t="str">
+      <c r="B17" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <v>1080</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="33">
+      <c r="D17" s="30"/>
+      <c r="E17" s="28">
         <v>0</v>
       </c>
-      <c r="F17" s="36"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="29">
         <f t="shared" si="0"/>
         <v>-0.13867355727820843</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="28">
         <v>1000</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="33">
+      <c r="D18" s="30"/>
+      <c r="E18" s="28">
         <v>1161</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="34">
+      <c r="A19" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="29">
         <f t="shared" ref="B19" si="1">IFERROR((C19-E19)/E19,"")</f>
         <v>-1</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="28">
         <v>0</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="33">
+      <c r="D19" s="30"/>
+      <c r="E19" s="28">
         <v>2969.42</v>
       </c>
-      <c r="F19" s="36"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="29">
         <f t="shared" si="0"/>
         <v>0.3155730965301759</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="28">
         <v>400</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="33">
+      <c r="D20" s="30"/>
+      <c r="E20" s="28">
         <v>304.05</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="29">
         <f t="shared" si="0"/>
         <v>-0.13223319786529369</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="28">
         <v>3000</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="33">
+      <c r="D21" s="30"/>
+      <c r="E21" s="28">
         <v>3457.15</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="29">
         <f t="shared" ref="B22" si="2">IFERROR((C22-E22)/E22,"")</f>
         <v>0.77196784275772445</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="28">
         <v>7580</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="33">
+      <c r="D22" s="30"/>
+      <c r="E22" s="28">
         <v>4277.7299999999996</v>
       </c>
-      <c r="F22" s="36"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="29">
         <f>IFERROR((C22-E23)/E23,"")</f>
         <v>106.51773049645391</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="33">
+      <c r="C23" s="33"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="28">
         <v>70.5</v>
       </c>
-      <c r="F23" s="41"/>
-    </row>
-    <row r="24" spans="1:6" s="114" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A24" s="109"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="113"/>
-    </row>
-    <row r="25" spans="1:6" s="116" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A25" s="42" t="s">
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" s="100" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="99"/>
+    </row>
+    <row r="25" spans="1:6" s="102" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1">
+      <c r="A25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="43">
+      <c r="B25" s="38">
         <f>IFERROR((C25-E25)/E25,"")</f>
         <v>0.88033138485883211</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="37">
         <f>C10+C23</f>
         <v>26950</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37">
         <f>E10+E23</f>
         <v>14332.58</v>
       </c>
-      <c r="F25" s="115"/>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="39" t="str">
+      <c r="F25" s="101"/>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
+      <c r="A26" s="40"/>
+      <c r="B26" s="34" t="str">
         <f t="shared" ref="B26:B67" si="3">IFERROR((C26-E26)/E26,"")</f>
         <v/>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="48"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="43"/>
     </row>
     <row r="27" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="39" t="str">
+      <c r="B27" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="41"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="49"/>
+      <c r="A28" s="16"/>
+      <c r="D28" s="23"/>
+      <c r="F28" s="44"/>
     </row>
     <row r="29" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="101">
+      <c r="B29" s="87">
         <f t="shared" ref="B29:B42" si="4">IFERROR((C29-E29)/E29,"")</f>
         <v>-0.23918983372242794</v>
       </c>
-      <c r="C29" s="100">
+      <c r="C29" s="86">
         <f>SUM(C30:C42)</f>
         <v>3940</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="100">
+      <c r="D29" s="30"/>
+      <c r="E29" s="86">
         <f>SUM(E30:E42)</f>
         <v>5178.6900000000005</v>
       </c>
-      <c r="F29" s="36"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="29">
         <f t="shared" si="4"/>
         <v>-0.50975585841749194</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="28">
         <v>100</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="33">
+      <c r="D30" s="30"/>
+      <c r="E30" s="28">
         <v>203.98</v>
       </c>
-      <c r="F30" s="36"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="29">
         <f t="shared" si="4"/>
         <v>-1.0880316518298658E-2</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="28">
         <v>50</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="33">
+      <c r="D31" s="30"/>
+      <c r="E31" s="28">
         <v>50.55</v>
       </c>
-      <c r="F31" s="36"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="29">
         <f t="shared" si="4"/>
         <v>1.0108586366378443</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="28">
         <v>1000</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="33">
+      <c r="D32" s="30"/>
+      <c r="E32" s="28">
         <v>497.3</v>
       </c>
-      <c r="F32" s="36"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="29">
         <f t="shared" si="4"/>
         <v>-0.8383903680659367</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="28">
         <v>200</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="33">
+      <c r="D33" s="30"/>
+      <c r="E33" s="28">
         <v>1237.55</v>
       </c>
-      <c r="F33" s="36"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="29">
         <f t="shared" si="4"/>
         <v>1.6442451420029897E-2</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="28">
         <v>170</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="33">
+      <c r="D34" s="30"/>
+      <c r="E34" s="28">
         <v>167.25</v>
       </c>
-      <c r="F34" s="36"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="29">
         <f t="shared" si="4"/>
         <v>1.6242555495398559E-3</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="28">
         <v>370</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="33">
+      <c r="D35" s="30"/>
+      <c r="E35" s="28">
         <v>369.4</v>
       </c>
-      <c r="F35" s="36"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="29">
         <f t="shared" si="4"/>
         <v>-0.67196551701514862</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="28">
         <v>500</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="33">
+      <c r="D36" s="30"/>
+      <c r="E36" s="28">
         <v>1524.23</v>
       </c>
-      <c r="F36" s="36"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="29">
         <f t="shared" si="4"/>
         <v>0.15340253748558244</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="28">
         <v>100</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="33">
+      <c r="D37" s="30"/>
+      <c r="E37" s="28">
         <v>86.7</v>
       </c>
-      <c r="F37" s="36"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="29">
         <f t="shared" si="4"/>
         <v>7.7258985555929173E-3</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="28">
         <v>150</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="33">
+      <c r="D38" s="30"/>
+      <c r="E38" s="28">
         <v>148.85</v>
       </c>
-      <c r="F38" s="36"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="34">
+      <c r="B39" s="29">
         <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="28">
         <v>0</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33">
+      <c r="D39" s="30"/>
+      <c r="E39" s="28">
         <v>550</v>
       </c>
-      <c r="F39" s="36"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="34">
+      <c r="B40" s="29">
         <f t="shared" si="4"/>
         <v>19.993701889433169</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="28">
         <v>600</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="33">
+      <c r="D40" s="30"/>
+      <c r="E40" s="28">
         <v>28.58</v>
       </c>
-      <c r="F40" s="36"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="34" t="str">
+      <c r="B41" s="29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="28">
         <v>200</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="33">
+      <c r="D41" s="30"/>
+      <c r="E41" s="28">
         <v>0</v>
       </c>
-      <c r="F41" s="36"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="29">
         <f t="shared" si="4"/>
         <v>0.59083678014635688</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="28">
         <v>500</v>
       </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="33">
+      <c r="D42" s="30"/>
+      <c r="E42" s="28">
         <v>314.3</v>
       </c>
-      <c r="F42" s="36"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="101">
+      <c r="B43" s="87">
         <f t="shared" ref="B43:B57" si="5">IFERROR((C43-E43)/E43,"")</f>
         <v>0.1501428806355625</v>
       </c>
-      <c r="C43" s="100">
+      <c r="C43" s="86">
         <f>SUM(C44:C58)</f>
         <v>23010</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="100">
+      <c r="D43" s="30"/>
+      <c r="E43" s="86">
         <f>SUM(E44:E58)</f>
         <v>20006.210000000003</v>
       </c>
-      <c r="F43" s="36"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="34">
+      <c r="B44" s="29">
         <f t="shared" si="5"/>
         <v>-0.80283356336084277</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="28">
         <v>70</v>
       </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="33">
+      <c r="D44" s="30"/>
+      <c r="E44" s="28">
         <f>73.4+281.63</f>
         <v>355.03</v>
       </c>
-      <c r="F44" s="36"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="34">
+      <c r="B45" s="29">
         <f t="shared" si="5"/>
         <v>1.3572491131708433</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="28">
         <v>1030</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="33">
+      <c r="D45" s="30"/>
+      <c r="E45" s="28">
         <v>436.95</v>
       </c>
-      <c r="F45" s="36"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="29">
         <f t="shared" si="5"/>
         <v>0.6944003314230478</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="28">
         <v>2454</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="33">
+      <c r="D46" s="30"/>
+      <c r="E46" s="28">
         <v>1448.3</v>
       </c>
-      <c r="F46" s="36"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="34" t="str">
+      <c r="B47" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="28">
         <v>200</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="33">
+      <c r="D47" s="30"/>
+      <c r="E47" s="28">
         <v>0</v>
       </c>
-      <c r="F47" s="36"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="34" t="str">
+      <c r="B48" s="29" t="str">
         <f>IFERROR((C48-E48)/E48,"")</f>
         <v/>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="28">
         <v>0</v>
       </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="33">
+      <c r="D48" s="30"/>
+      <c r="E48" s="28">
         <v>0</v>
       </c>
-      <c r="F48" s="36"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="34" t="str">
+      <c r="B49" s="29" t="str">
         <f>IFERROR((C49-E49)/E49,"")</f>
         <v/>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="28">
         <v>1316</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="33">
+      <c r="D49" s="30"/>
+      <c r="E49" s="28">
         <v>0</v>
       </c>
-      <c r="F49" s="36"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="34">
+      <c r="B50" s="29">
         <f>IFERROR((C50-E50)/E50,"")</f>
         <v>4.144694533762058</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="28">
         <v>1200</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="33">
+      <c r="D50" s="30"/>
+      <c r="E50" s="28">
         <v>233.25</v>
       </c>
-      <c r="F50" s="36"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="34" t="str">
+      <c r="B51" s="29" t="str">
         <f>IFERROR((C51-E51)/E51,"")</f>
         <v/>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="28">
         <v>200</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="33">
+      <c r="D51" s="30"/>
+      <c r="E51" s="28">
         <v>0</v>
       </c>
-      <c r="F51" s="36"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="29">
         <f t="shared" si="5"/>
         <v>1.0734014377601211</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="28">
         <v>1370</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="33">
+      <c r="D52" s="30"/>
+      <c r="E52" s="28">
         <f>80.75+580</f>
         <v>660.75</v>
       </c>
-      <c r="F52" s="36"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A53" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="33">
+      <c r="A53" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="28">
         <v>3000</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="33">
+      <c r="D53" s="30"/>
+      <c r="E53" s="28">
         <v>8519.58</v>
       </c>
-      <c r="F53" s="36"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A54" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="34">
+      <c r="A54" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="29">
         <f>IFERROR((C54-E54)/E54,"")</f>
         <v>-0.69811771418714053</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="28">
         <v>910</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="33">
+      <c r="D54" s="30"/>
+      <c r="E54" s="28">
         <v>3014.42</v>
       </c>
-      <c r="F54" s="36"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A55" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="34"/>
-      <c r="C55" s="33">
+      <c r="A55" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="29"/>
+      <c r="C55" s="28">
         <v>1000</v>
       </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="33">
+      <c r="D55" s="30"/>
+      <c r="E55" s="28">
         <v>1030</v>
       </c>
-      <c r="F55" s="36"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="34">
+      <c r="B56" s="29">
         <f>IFERROR((C56-E56)/E56,"")</f>
         <v>4.3784860557768921</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="28">
         <f>1080</f>
         <v>1080</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="33">
+      <c r="D56" s="30"/>
+      <c r="E56" s="28">
         <v>200.8</v>
       </c>
-      <c r="F56" s="41"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B57" s="29">
         <f t="shared" si="5"/>
         <v>-0.46666666666666667</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="28">
         <v>600</v>
       </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="33">
+      <c r="D57" s="30"/>
+      <c r="E57" s="28">
         <v>1125</v>
       </c>
-      <c r="F57" s="36"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B58" s="34">
+      <c r="B58" s="29">
         <f>IFERROR((C58-E58)/E58,"")</f>
         <v>1.8771381529309585</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="28">
         <v>8580</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="33">
+      <c r="D58" s="30"/>
+      <c r="E58" s="28">
         <v>2982.13</v>
       </c>
-      <c r="F58" s="36"/>
-    </row>
-    <row r="59" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A59" s="50"/>
-      <c r="B59" s="39" t="str">
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A59" s="45"/>
+      <c r="B59" s="34" t="str">
         <f t="shared" ref="B59:B66" si="6">IFERROR((C59-E59)/E59,"")</f>
         <v/>
       </c>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="130"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="105"/>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="43">
+      <c r="B60" s="38">
         <f t="shared" si="6"/>
         <v>7.0085646558056547E-2</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="37">
         <f>C29+C43</f>
         <v>26950</v>
       </c>
-      <c r="D60" s="117"/>
-      <c r="E60" s="42">
+      <c r="D60" s="103"/>
+      <c r="E60" s="37">
         <f>E29+E43</f>
         <v>25184.9</v>
       </c>
-      <c r="F60" s="41"/>
-    </row>
-    <row r="61" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A61" s="53"/>
-      <c r="B61" s="39" t="str">
+      <c r="F60" s="36"/>
+    </row>
+    <row r="61" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1" thickTop="1">
+      <c r="A61" s="47"/>
+      <c r="B61" s="34" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="134"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="48"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="43">
+      <c r="B62" s="38">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="37">
         <f>C25-C60</f>
         <v>0</v>
       </c>
-      <c r="D62" s="117"/>
-      <c r="E62" s="42">
+      <c r="D62" s="103"/>
+      <c r="E62" s="37">
         <f>E25-E60</f>
         <v>-10852.320000000002</v>
       </c>
-      <c r="F62" s="41"/>
+      <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A63" s="53"/>
-      <c r="B63" s="39" t="str">
+      <c r="A63" s="47"/>
+      <c r="B63" s="34" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="53" t="s">
+      <c r="C63" s="47"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="F63" s="41"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A64" s="131" t="s">
+      <c r="A64" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="34">
+      <c r="B64" s="29">
         <f t="shared" si="6"/>
         <v>-0.16399999999999995</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="28">
         <v>125.4</v>
       </c>
-      <c r="D64" s="132"/>
-      <c r="E64" s="33">
+      <c r="D64" s="107"/>
+      <c r="E64" s="28">
         <v>150</v>
       </c>
-      <c r="F64" s="133"/>
-    </row>
-    <row r="65" spans="1:6" s="7" customFormat="1" ht="17.399999999999999" customHeight="1">
-      <c r="A65" s="55"/>
-      <c r="B65" s="39" t="str">
+      <c r="F64" s="108"/>
+    </row>
+    <row r="65" spans="1:6" s="5" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A65" s="40"/>
+      <c r="B65" s="34" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="45"/>
-      <c r="F65" s="48"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="43">
+      <c r="B66" s="38">
         <f t="shared" si="6"/>
         <v>-0.98860240385664122</v>
       </c>
-      <c r="C66" s="58">
+      <c r="C66" s="50">
         <f>C62-C64</f>
         <v>-125.4</v>
       </c>
-      <c r="D66" s="118"/>
-      <c r="E66" s="58">
+      <c r="D66" s="104"/>
+      <c r="E66" s="50">
         <f>E62-E64</f>
         <v>-11002.320000000002</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="36"/>
     </row>
     <row r="67" spans="1:6" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A67" s="55"/>
-      <c r="B67" s="39" t="str">
+      <c r="A67" s="40"/>
+      <c r="B67" s="34" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="45"/>
-      <c r="F67" s="41"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="36"/>
     </row>
     <row r="68" spans="1:6" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="38">
         <f>IFERROR((C68-E68)/E68,"")</f>
         <v>-0.98860240385664122</v>
       </c>
-      <c r="C68" s="58">
+      <c r="C68" s="50">
         <f>C66</f>
         <v>-125.4</v>
       </c>
-      <c r="D68" s="118"/>
-      <c r="E68" s="58">
+      <c r="D68" s="104"/>
+      <c r="E68" s="50">
         <f>E66</f>
         <v>-11002.320000000002</v>
       </c>
-      <c r="F68" s="41"/>
+      <c r="F68" s="36"/>
     </row>
     <row r="69" spans="1:6" ht="17.399999999999999" customHeight="1" thickTop="1">
-      <c r="A69" s="55"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="56"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="49"/>
     </row>
     <row r="70" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A70" s="59"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="11"/>
+      <c r="A70" s="51"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="9"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="9"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="17.399999999999999" customHeight="1">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="9"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="9"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="1"/>
-      <c r="C75" s="9"/>
-      <c r="E75" s="9"/>
-    </row>
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" ht="17.399999999999999" customHeight="1"/>
+    <row r="73" spans="1:6" ht="17.399999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A6:E6"/>
@@ -3139,891 +3083,882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:XFC82"/>
+  <dimension ref="A1:XFC80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="47.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7" style="3" customWidth="1"/>
-    <col min="6" max="6" width="132.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="0" style="2" hidden="1"/>
-    <col min="8" max="16383" width="11.44140625" style="2" hidden="1"/>
-    <col min="16384" max="16384" width="12" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="47.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="6" max="6" width="132.453125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="0" style="1" hidden="1"/>
+    <col min="8" max="16383" width="11.453125" style="1" hidden="1"/>
+    <col min="16384" max="16384" width="12" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:6" ht="20">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="60"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.200000000000003" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.25" customHeight="1">
+      <c r="A2" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="60"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6">
-      <c r="A3" s="129" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="36"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.5">
+      <c r="A3" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="60"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" hidden="1" customHeight="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="60"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="60"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="5.25" customHeight="1">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="60"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6" ht="87.75" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="53"/>
+      <c r="D8" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67"/>
-    </row>
-    <row r="10" spans="1:6" ht="9.4499999999999993" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A11" s="47" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+    </row>
+    <row r="10" spans="1:6" ht="9.5" customHeight="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="58"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A11" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="42">
         <f>B12+B21</f>
         <v>21097.059999999998</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="47">
+      <c r="C11" s="61"/>
+      <c r="D11" s="42">
         <f>D12+D21</f>
         <v>24823.279999999999</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A12" s="73" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="22">
         <f>SUM(B13:B19)</f>
         <v>21097.059999999998</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="27">
+      <c r="C12" s="63"/>
+      <c r="D12" s="22">
         <f>SUM(D13:D19)</f>
         <v>15623.970000000001</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="29"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="106">
+      <c r="B13" s="92">
         <f>D13+D22-D41-D38+'Profits et Pertes'!C11+'Profits et Pertes'!C20</f>
         <v>14684.219999999998</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="103">
+      <c r="C13" s="93"/>
+      <c r="D13" s="89">
         <v>5211.13</v>
       </c>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="89">
         <v>2005.55</v>
       </c>
-      <c r="C14" s="107"/>
-      <c r="D14" s="103">
+      <c r="C14" s="93"/>
+      <c r="D14" s="89">
         <v>4005.55</v>
       </c>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="103">
+      <c r="B15" s="89">
         <v>1753.04</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="103">
+      <c r="C15" s="93"/>
+      <c r="D15" s="89">
         <v>3753.04</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="106">
+      <c r="B16" s="92">
         <v>174.25</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="103">
+      <c r="C16" s="93"/>
+      <c r="D16" s="89">
         <v>174.25</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="106">
+      <c r="B17" s="92">
         <v>334.05</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="103">
+      <c r="C17" s="93"/>
+      <c r="D17" s="89">
         <v>334.05</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="91" t="s">
+      <c r="A18" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="106">
+      <c r="B18" s="92">
         <v>1361</v>
       </c>
-      <c r="C18" s="107"/>
-      <c r="D18" s="103">
+      <c r="C18" s="93"/>
+      <c r="D18" s="89">
         <v>1361</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="103">
+      <c r="B19" s="89">
         <v>784.95</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="103">
+      <c r="C19" s="90"/>
+      <c r="D19" s="89">
         <v>784.95</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="1:6" ht="9.4499999999999993" customHeight="1">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="29"/>
-    </row>
-    <row r="21" spans="1:6" s="5" customFormat="1">
-      <c r="A21" s="73" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="1:6" ht="9.5" customHeight="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1">
+      <c r="A21" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="22">
         <f>SUM(B22:B22)</f>
         <v>0</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="27">
+      <c r="C21" s="63"/>
+      <c r="D21" s="22">
         <f>SUM(D22:D22)</f>
         <v>9199.31</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="103">
+      <c r="B22" s="89">
         <v>0</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="103">
+      <c r="C22" s="90"/>
+      <c r="D22" s="89">
         <v>9199.31</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="49"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="44"/>
     </row>
     <row r="23" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="44"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="27">
+      <c r="B24" s="22">
         <f>SUM(B25:B25)</f>
         <v>0</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="27">
+      <c r="C24" s="63"/>
+      <c r="D24" s="22">
         <f>SUM(D25:D25)</f>
         <v>125.4</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="103">
+      <c r="B25" s="89">
         <v>0</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="103">
+      <c r="C25" s="90"/>
+      <c r="D25" s="89">
         <v>125.4</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" ht="12" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="41"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="37">
         <f>B24+B21+B12</f>
         <v>21097.059999999998</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="42">
+      <c r="C27" s="80"/>
+      <c r="D27" s="37">
         <f>D24+D21+D12</f>
         <v>24948.68</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="41"/>
-    </row>
-    <row r="28" spans="1:6" ht="12.45" customHeight="1" thickTop="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="41"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.5" customHeight="1" thickTop="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="41"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="41"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="47">
+      <c r="B31" s="42">
         <f>SUM(B32:B40)</f>
         <v>11263.77</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="47">
+      <c r="C31" s="61"/>
+      <c r="D31" s="42">
         <f>SUM(D32:D40)</f>
         <v>15889.990000000002</v>
       </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="41"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="99">
+      <c r="B32" s="85">
         <v>2223.13</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="99">
+      <c r="C32" s="91"/>
+      <c r="D32" s="85">
         <v>4223.13</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="41"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="99" t="s">
+      <c r="A33" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="99">
+      <c r="B33" s="85">
         <v>217.58</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="99">
+      <c r="C33" s="91"/>
+      <c r="D33" s="85">
         <v>217.58</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="41"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="99">
+      <c r="B34" s="85">
         <v>1833.79</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="99">
+      <c r="C34" s="91"/>
+      <c r="D34" s="85">
         <v>3833.79</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="41"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="99">
+      <c r="B35" s="85">
         <v>80.75</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="99">
+      <c r="C35" s="91"/>
+      <c r="D35" s="85">
         <v>80.75</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="41"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="99">
+      <c r="B36" s="85">
         <v>3472.78</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="99">
+      <c r="C36" s="91"/>
+      <c r="D36" s="85">
         <v>3472.78</v>
       </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="99" t="s">
+      <c r="A37" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="99">
+      <c r="B37" s="85">
         <v>3116.58</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="99">
+      <c r="C37" s="91"/>
+      <c r="D37" s="85">
         <v>3116.58</v>
       </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="99" t="s">
+      <c r="A38" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="99">
+      <c r="B38" s="85">
         <v>0</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="99">
+      <c r="C38" s="91"/>
+      <c r="D38" s="85">
         <v>29.1</v>
       </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="41"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="99">
+      <c r="B39" s="85">
         <v>319.16000000000003</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="99">
+      <c r="C39" s="91"/>
+      <c r="D39" s="85">
         <v>319.16000000000003</v>
       </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="41"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="73" t="s">
+      <c r="A40" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="27">
+      <c r="B40" s="22">
         <f>SUM(B41)</f>
         <v>0</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="27">
+      <c r="C40" s="63"/>
+      <c r="D40" s="22">
         <f>SUM(D41:D41)</f>
         <v>597.12</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="41"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="103">
+      <c r="B41" s="89">
         <v>0</v>
       </c>
-      <c r="C41" s="104"/>
-      <c r="D41" s="103">
+      <c r="C41" s="90"/>
+      <c r="D41" s="89">
         <v>597.12</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="49"/>
-    </row>
-    <row r="42" spans="1:6" ht="7.95" customHeight="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="41"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="42" spans="1:6" ht="8" customHeight="1">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="47">
+      <c r="B43" s="42">
         <f>SUM(B44:B45)</f>
         <v>3956.8599999999983</v>
       </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="47">
+      <c r="C43" s="61"/>
+      <c r="D43" s="42">
         <f>SUM(D44:D45)</f>
         <v>4082.2599999999984</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="48"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="33">
         <f>+D44+D45</f>
         <v>4082.2599999999984</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="38">
+      <c r="C44" s="66"/>
+      <c r="D44" s="33">
         <v>15084.58</v>
       </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="41"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="103">
+      <c r="B45" s="89">
         <f>'Profits et Pertes'!C68</f>
         <v>-125.4</v>
       </c>
-      <c r="C45" s="104"/>
-      <c r="D45" s="103">
+      <c r="C45" s="90"/>
+      <c r="D45" s="89">
         <f>'Profits et Pertes'!E68</f>
         <v>-11002.320000000002</v>
       </c>
-      <c r="E45" s="30"/>
-      <c r="F45" s="49"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="41"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" ht="15" thickBot="1">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="37">
         <f>B43+B31</f>
         <v>15220.63</v>
       </c>
-      <c r="C47" s="94"/>
-      <c r="D47" s="42">
+      <c r="C47" s="80"/>
+      <c r="D47" s="37">
         <f>D43+D31</f>
         <v>19972.25</v>
       </c>
-      <c r="E47" s="71"/>
-      <c r="F47" s="41"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" thickTop="1">
-      <c r="A48" s="38"/>
-      <c r="B48" s="81"/>
-      <c r="C48" s="82"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="41"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A49" s="93"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="67"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="58"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="67"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="58"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="67"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="75"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="58"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="67"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="58"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="67"/>
+      <c r="A53" s="75"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="58"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="67"/>
+      <c r="A54" s="75"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="58"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="67"/>
+      <c r="A55" s="75"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="58"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="67"/>
+      <c r="A56" s="75"/>
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="58"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="67"/>
+      <c r="A57" s="75"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="58"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="67"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="58"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="67"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="58"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="67"/>
+      <c r="A60" s="75"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="75"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="58"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="67"/>
+      <c r="A61" s="75"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="58"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="67"/>
+      <c r="A62" s="75"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="58"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="88"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="67"/>
+      <c r="A63" s="75"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="58"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="88"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="67"/>
+      <c r="A64" s="75"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="58"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="88"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="67"/>
+      <c r="A65" s="75"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="58"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="67"/>
+      <c r="A66" s="75"/>
+      <c r="B66" s="75"/>
+      <c r="C66" s="76"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="58"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="88"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="90"/>
-      <c r="E67" s="87"/>
-      <c r="F67" s="67"/>
+      <c r="A67" s="75"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="58"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="67"/>
+      <c r="A68" s="75"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="76"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="58"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="88"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="67"/>
+      <c r="A69" s="75"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="58"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="88"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="90"/>
-      <c r="E70" s="87"/>
-      <c r="F70" s="67"/>
+      <c r="A70" s="75"/>
+      <c r="B70" s="75"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="75"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="88"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="90"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="67"/>
+      <c r="A71" s="75"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="58"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="89"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="67"/>
+      <c r="A72" s="75"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="76"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="58"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="67"/>
+      <c r="A73" s="75"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="76"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="58"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="88"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="67"/>
+      <c r="A74" s="75"/>
+      <c r="B74" s="75"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="75"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="58"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="88"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="67"/>
+      <c r="A75" s="75"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="89"/>
-      <c r="D76" s="90"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="67"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="75"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="58"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="90"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="67"/>
+      <c r="A77" s="75"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="76"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="58"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="89"/>
-      <c r="D78" s="90"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="67"/>
+      <c r="A78" s="75"/>
+      <c r="B78" s="75"/>
+      <c r="C78" s="76"/>
+      <c r="D78" s="75"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="58"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="88"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="89"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="67"/>
+      <c r="A79" s="75"/>
+      <c r="B79" s="75"/>
+      <c r="C79" s="76"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="74"/>
+      <c r="F79" s="58"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="88"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="89"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="67"/>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="9"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="D82" s="9"/>
+      <c r="A80" s="75"/>
+      <c r="B80" s="75"/>
+      <c r="C80" s="76"/>
+      <c r="D80" s="75"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
